--- a/public/modelo_importacao_conta-corrente.xlsx
+++ b/public/modelo_importacao_conta-corrente.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>banco</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Banco Inter</t>
+  </si>
+  <si>
+    <t>sub_categoria</t>
+  </si>
+  <si>
+    <t>Supermercados</t>
   </si>
 </sst>
 </file>
@@ -423,19 +429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="19.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="8" width="19.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,16 +453,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -469,15 +476,18 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>600</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
